--- a/DSAI-5_unscheduled_courses.xlsx
+++ b/DSAI-5_unscheduled_courses.xlsx
@@ -46,7 +46,7 @@
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>Dr. Siddharth</t>
+    <t>Dr. Siddharth R</t>
   </si>
   <si>
     <t>Lab</t>
